--- a/docs/HDP on Power - Deployment Guide - Cabling Specifications v1.0.xlsx
+++ b/docs/HDP on Power - Deployment Guide - Cabling Specifications v1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodbury\Documents\User\IBM\TC\BigDataAnalytics\IDE-HS\v2.0\recipe\HDP on Power - git contents\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodbury\Documents\User\IBM\TC\BigDataAnalytics\HDP-on-Power\recipe\HDP on Power - git contents\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -560,6 +560,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -593,22 +609,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -938,7 +938,7 @@
   <dimension ref="A1:O211"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -964,22 +964,22 @@
     <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="56"/>
+      <c r="K2" s="62"/>
       <c r="L2" s="17" t="s">
         <v>7</v>
       </c>
@@ -1041,13 +1041,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="43" t="s">
+      <c r="B5" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="22" t="s">
@@ -1080,13 +1080,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="43" t="s">
+      <c r="B6" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>74</v>
       </c>
       <c r="E6" s="22" t="s">
@@ -1119,13 +1119,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="43" t="s">
+      <c r="B7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>74</v>
       </c>
       <c r="E7" s="22" t="s">
@@ -1158,13 +1158,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="43" t="s">
+      <c r="B8" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>74</v>
       </c>
       <c r="E8" s="22" t="s">
@@ -1197,13 +1197,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="43" t="s">
+      <c r="B9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>74</v>
       </c>
       <c r="E9" s="22" t="s">
@@ -1237,10 +1237,10 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>74</v>
@@ -1276,10 +1276,10 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>74</v>
@@ -1315,10 +1315,10 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>74</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="39" t="s">
+      <c r="B13" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E13" s="22" t="s">
@@ -1392,13 +1392,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="39" t="s">
+      <c r="B14" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -1431,13 +1431,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="39" t="s">
+      <c r="B15" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E15" s="22" t="s">
@@ -1470,13 +1470,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="39" t="s">
+      <c r="B16" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="22" t="s">
@@ -1509,13 +1509,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="39" t="s">
+      <c r="B17" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="22" t="s">
@@ -1565,13 +1565,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="43" t="s">
+      <c r="B19" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="22" t="s">
@@ -1604,13 +1604,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="43" t="s">
+      <c r="B20" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="22" t="s">
@@ -1643,13 +1643,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="43" t="s">
+      <c r="B21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="22" t="s">
@@ -1682,13 +1682,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="43" t="s">
+      <c r="B22" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="22" t="s">
@@ -1721,13 +1721,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="43" t="s">
+      <c r="B23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="22" t="s">
@@ -1761,10 +1761,10 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D24" s="43" t="s">
         <v>19</v>
@@ -1800,10 +1800,10 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="D25" s="43" t="s">
         <v>19</v>
@@ -1839,10 +1839,10 @@
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D26" s="43" t="s">
         <v>19</v>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="39" t="s">
+      <c r="B27" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="22" t="s">
@@ -1916,13 +1916,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="39" t="s">
+      <c r="B28" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="22" t="s">
@@ -1955,13 +1955,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="39" t="s">
+      <c r="B29" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22" t="s">
@@ -1994,13 +1994,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="39" t="s">
+      <c r="B30" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="22" t="s">
@@ -2033,13 +2033,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="22" t="s">
@@ -2089,13 +2089,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="43" t="s">
+      <c r="B33" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="22" t="s">
@@ -2128,13 +2128,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="43" t="s">
+      <c r="B34" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="22" t="s">
@@ -2167,13 +2167,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="43" t="s">
+      <c r="B35" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="22" t="s">
@@ -2206,13 +2206,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="43" t="s">
+      <c r="B36" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="22" t="s">
@@ -2245,13 +2245,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="43" t="s">
+      <c r="B37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="22" t="s">
@@ -2285,10 +2285,10 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D38" s="43" t="s">
         <v>20</v>
@@ -2324,10 +2324,10 @@
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="D39" s="43" t="s">
         <v>20</v>
@@ -2363,10 +2363,10 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D40" s="43" t="s">
         <v>20</v>
@@ -2401,13 +2401,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="39" t="s">
+      <c r="B41" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="22" t="s">
@@ -2440,13 +2440,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="39" t="s">
+      <c r="B42" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="22" t="s">
@@ -2479,13 +2479,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="39" t="s">
+      <c r="B43" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="22" t="s">
@@ -2518,13 +2518,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="39" t="s">
+      <c r="B44" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="22" t="s">
@@ -2557,13 +2557,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="39" t="s">
+      <c r="B45" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="22" t="s">
@@ -2611,13 +2611,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="43" t="s">
+      <c r="B47" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="39" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="22" t="s">
@@ -2648,13 +2648,13 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="B48" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="43" t="s">
+      <c r="B48" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="39" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="22" t="s">
@@ -2685,13 +2685,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="43" t="s">
+      <c r="B49" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="39" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="22" t="s">
@@ -2722,13 +2722,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="43" t="s">
+      <c r="B50" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="39" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="22" t="s">
@@ -2759,13 +2759,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="43" t="s">
+      <c r="B51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="39" t="s">
         <v>23</v>
       </c>
       <c r="E51" s="22" t="s">
@@ -2797,10 +2797,10 @@
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D52" s="43" t="s">
         <v>23</v>
@@ -2834,10 +2834,10 @@
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="58" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="D53" s="43" t="s">
         <v>23</v>
@@ -2871,10 +2871,10 @@
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D54" s="43" t="s">
         <v>23</v>
@@ -2907,13 +2907,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="39" t="s">
+      <c r="B55" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="43" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="22" t="s">
@@ -2944,13 +2944,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="39" t="s">
+      <c r="B56" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="43" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="22" t="s">
@@ -2981,13 +2981,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="39" t="s">
+      <c r="B57" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="43" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="22" t="s">
@@ -3018,13 +3018,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="39" t="s">
+      <c r="B58" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="43" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="22" t="s">
@@ -3055,13 +3055,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D59" s="39" t="s">
+      <c r="B59" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="43" t="s">
         <v>23</v>
       </c>
       <c r="E59" s="22" t="s">
@@ -3402,13 +3402,13 @@
       <c r="E70" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="62" t="s">
+      <c r="F70" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G70" s="63" t="s">
+      <c r="G70" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H70" s="63">
+      <c r="H70" s="51">
         <v>19</v>
       </c>
       <c r="I70" s="22" t="s">
@@ -3473,13 +3473,13 @@
       <c r="E73" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="62" t="s">
+      <c r="F73" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G73" s="63" t="s">
+      <c r="G73" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H73" s="63">
+      <c r="H73" s="51">
         <v>21</v>
       </c>
       <c r="I73" s="22" t="s">
@@ -3501,11 +3501,11 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="60"/>
+      <c r="C74" s="48"/>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="60"/>
+      <c r="G74" s="48"/>
       <c r="H74" s="7"/>
       <c r="I74" s="6"/>
       <c r="J74" s="22"/>
@@ -5000,14 +5000,14 @@
       <c r="D166" s="31"/>
       <c r="E166" s="32"/>
       <c r="F166" s="36"/>
-      <c r="G166" s="61"/>
+      <c r="G166" s="49"/>
       <c r="H166" s="33"/>
       <c r="I166" s="32"/>
       <c r="J166" s="33"/>
       <c r="K166" s="33"/>
-      <c r="L166" s="46"/>
-      <c r="M166" s="57"/>
-      <c r="N166" s="57"/>
+      <c r="L166" s="52"/>
+      <c r="M166" s="63"/>
+      <c r="N166" s="63"/>
       <c r="O166" s="14"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
@@ -5017,14 +5017,14 @@
       <c r="D167" s="31"/>
       <c r="E167" s="32"/>
       <c r="F167" s="36"/>
-      <c r="G167" s="61"/>
+      <c r="G167" s="49"/>
       <c r="H167" s="33"/>
       <c r="I167" s="32"/>
       <c r="J167" s="33"/>
       <c r="K167" s="33"/>
-      <c r="L167" s="57"/>
-      <c r="M167" s="57"/>
-      <c r="N167" s="57"/>
+      <c r="L167" s="63"/>
+      <c r="M167" s="63"/>
+      <c r="N167" s="63"/>
       <c r="O167" s="14"/>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.2">
@@ -5034,14 +5034,14 @@
       <c r="D168" s="31"/>
       <c r="E168" s="32"/>
       <c r="F168" s="36"/>
-      <c r="G168" s="61"/>
+      <c r="G168" s="49"/>
       <c r="H168" s="33"/>
       <c r="I168" s="32"/>
       <c r="J168" s="33"/>
       <c r="K168" s="33"/>
-      <c r="L168" s="57"/>
-      <c r="M168" s="57"/>
-      <c r="N168" s="57"/>
+      <c r="L168" s="63"/>
+      <c r="M168" s="63"/>
+      <c r="N168" s="63"/>
       <c r="O168" s="14"/>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.2">
@@ -5051,14 +5051,14 @@
       <c r="D169" s="31"/>
       <c r="E169" s="32"/>
       <c r="F169" s="36"/>
-      <c r="G169" s="61"/>
+      <c r="G169" s="49"/>
       <c r="H169" s="33"/>
       <c r="I169" s="32"/>
       <c r="J169" s="33"/>
       <c r="K169" s="33"/>
-      <c r="L169" s="57"/>
-      <c r="M169" s="57"/>
-      <c r="N169" s="57"/>
+      <c r="L169" s="63"/>
+      <c r="M169" s="63"/>
+      <c r="N169" s="63"/>
       <c r="O169" s="14"/>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.2">
@@ -5068,14 +5068,14 @@
       <c r="D170" s="35"/>
       <c r="E170" s="23"/>
       <c r="F170" s="36"/>
-      <c r="G170" s="61"/>
+      <c r="G170" s="49"/>
       <c r="H170" s="34"/>
       <c r="I170" s="23"/>
       <c r="J170" s="23"/>
       <c r="K170" s="34"/>
-      <c r="L170" s="57"/>
-      <c r="M170" s="57"/>
-      <c r="N170" s="57"/>
+      <c r="L170" s="63"/>
+      <c r="M170" s="63"/>
+      <c r="N170" s="63"/>
       <c r="O170" s="14"/>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.2">
@@ -5085,14 +5085,14 @@
       <c r="D171" s="31"/>
       <c r="E171" s="32"/>
       <c r="F171" s="36"/>
-      <c r="G171" s="61"/>
+      <c r="G171" s="49"/>
       <c r="H171" s="33"/>
       <c r="I171" s="32"/>
       <c r="J171" s="33"/>
       <c r="K171" s="33"/>
-      <c r="L171" s="57"/>
-      <c r="M171" s="57"/>
-      <c r="N171" s="57"/>
+      <c r="L171" s="63"/>
+      <c r="M171" s="63"/>
+      <c r="N171" s="63"/>
       <c r="O171" s="14"/>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
@@ -5102,14 +5102,14 @@
       <c r="D172" s="31"/>
       <c r="E172" s="32"/>
       <c r="F172" s="36"/>
-      <c r="G172" s="61"/>
+      <c r="G172" s="49"/>
       <c r="H172" s="33"/>
       <c r="I172" s="32"/>
       <c r="J172" s="33"/>
       <c r="K172" s="33"/>
-      <c r="L172" s="57"/>
-      <c r="M172" s="57"/>
-      <c r="N172" s="57"/>
+      <c r="L172" s="63"/>
+      <c r="M172" s="63"/>
+      <c r="N172" s="63"/>
       <c r="O172" s="14"/>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.2">
@@ -5119,14 +5119,14 @@
       <c r="D173" s="31"/>
       <c r="E173" s="32"/>
       <c r="F173" s="36"/>
-      <c r="G173" s="61"/>
+      <c r="G173" s="49"/>
       <c r="H173" s="33"/>
       <c r="I173" s="32"/>
       <c r="J173" s="33"/>
       <c r="K173" s="33"/>
-      <c r="L173" s="57"/>
-      <c r="M173" s="57"/>
-      <c r="N173" s="57"/>
+      <c r="L173" s="63"/>
+      <c r="M173" s="63"/>
+      <c r="N173" s="63"/>
       <c r="O173" s="14"/>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.2">
@@ -5136,14 +5136,14 @@
       <c r="D174" s="31"/>
       <c r="E174" s="32"/>
       <c r="F174" s="36"/>
-      <c r="G174" s="61"/>
+      <c r="G174" s="49"/>
       <c r="H174" s="33"/>
       <c r="I174" s="32"/>
       <c r="J174" s="33"/>
       <c r="K174" s="33"/>
-      <c r="L174" s="57"/>
-      <c r="M174" s="57"/>
-      <c r="N174" s="57"/>
+      <c r="L174" s="63"/>
+      <c r="M174" s="63"/>
+      <c r="N174" s="63"/>
       <c r="O174" s="14"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.2">
@@ -5170,14 +5170,14 @@
       <c r="D176" s="31"/>
       <c r="E176" s="32"/>
       <c r="F176" s="36"/>
-      <c r="G176" s="61"/>
+      <c r="G176" s="49"/>
       <c r="H176" s="33"/>
       <c r="I176" s="32"/>
       <c r="J176" s="33"/>
       <c r="K176" s="33"/>
-      <c r="L176" s="48"/>
-      <c r="M176" s="48"/>
-      <c r="N176" s="48"/>
+      <c r="L176" s="54"/>
+      <c r="M176" s="54"/>
+      <c r="N176" s="54"/>
       <c r="O176" s="15"/>
     </row>
     <row r="177" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5187,14 +5187,14 @@
       <c r="D177" s="31"/>
       <c r="E177" s="32"/>
       <c r="F177" s="36"/>
-      <c r="G177" s="61"/>
+      <c r="G177" s="49"/>
       <c r="H177" s="33"/>
       <c r="I177" s="32"/>
       <c r="J177" s="33"/>
       <c r="K177" s="33"/>
-      <c r="L177" s="48"/>
-      <c r="M177" s="48"/>
-      <c r="N177" s="48"/>
+      <c r="L177" s="54"/>
+      <c r="M177" s="54"/>
+      <c r="N177" s="54"/>
       <c r="O177" s="15"/>
     </row>
     <row r="178" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5204,14 +5204,14 @@
       <c r="D178" s="31"/>
       <c r="E178" s="32"/>
       <c r="F178" s="36"/>
-      <c r="G178" s="61"/>
+      <c r="G178" s="49"/>
       <c r="H178" s="33"/>
       <c r="I178" s="32"/>
       <c r="J178" s="33"/>
       <c r="K178" s="33"/>
-      <c r="L178" s="48"/>
-      <c r="M178" s="48"/>
-      <c r="N178" s="48"/>
+      <c r="L178" s="54"/>
+      <c r="M178" s="54"/>
+      <c r="N178" s="54"/>
       <c r="O178" s="15"/>
     </row>
     <row r="179" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5221,14 +5221,14 @@
       <c r="D179" s="31"/>
       <c r="E179" s="32"/>
       <c r="F179" s="36"/>
-      <c r="G179" s="61"/>
+      <c r="G179" s="49"/>
       <c r="H179" s="33"/>
       <c r="I179" s="32"/>
       <c r="J179" s="33"/>
       <c r="K179" s="33"/>
-      <c r="L179" s="48"/>
-      <c r="M179" s="48"/>
-      <c r="N179" s="48"/>
+      <c r="L179" s="54"/>
+      <c r="M179" s="54"/>
+      <c r="N179" s="54"/>
       <c r="O179" s="15"/>
     </row>
     <row r="180" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5238,14 +5238,14 @@
       <c r="D180" s="31"/>
       <c r="E180" s="32"/>
       <c r="F180" s="36"/>
-      <c r="G180" s="61"/>
+      <c r="G180" s="49"/>
       <c r="H180" s="33"/>
       <c r="I180" s="32"/>
       <c r="J180" s="33"/>
       <c r="K180" s="33"/>
-      <c r="L180" s="46"/>
-      <c r="M180" s="47"/>
-      <c r="N180" s="47"/>
+      <c r="L180" s="52"/>
+      <c r="M180" s="53"/>
+      <c r="N180" s="53"/>
       <c r="O180" s="11"/>
     </row>
     <row r="181" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5255,14 +5255,14 @@
       <c r="D181" s="31"/>
       <c r="E181" s="32"/>
       <c r="F181" s="36"/>
-      <c r="G181" s="61"/>
+      <c r="G181" s="49"/>
       <c r="H181" s="33"/>
       <c r="I181" s="32"/>
       <c r="J181" s="33"/>
       <c r="K181" s="33"/>
-      <c r="L181" s="47"/>
-      <c r="M181" s="47"/>
-      <c r="N181" s="47"/>
+      <c r="L181" s="53"/>
+      <c r="M181" s="53"/>
+      <c r="N181" s="53"/>
       <c r="O181" s="11"/>
     </row>
     <row r="182" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5272,14 +5272,14 @@
       <c r="D182" s="31"/>
       <c r="E182" s="32"/>
       <c r="F182" s="36"/>
-      <c r="G182" s="61"/>
+      <c r="G182" s="49"/>
       <c r="H182" s="33"/>
       <c r="I182" s="32"/>
       <c r="J182" s="33"/>
       <c r="K182" s="33"/>
-      <c r="L182" s="47"/>
-      <c r="M182" s="47"/>
-      <c r="N182" s="47"/>
+      <c r="L182" s="53"/>
+      <c r="M182" s="53"/>
+      <c r="N182" s="53"/>
       <c r="O182" s="11"/>
     </row>
     <row r="183" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5289,14 +5289,14 @@
       <c r="D183" s="31"/>
       <c r="E183" s="32"/>
       <c r="F183" s="36"/>
-      <c r="G183" s="61"/>
+      <c r="G183" s="49"/>
       <c r="H183" s="33"/>
       <c r="I183" s="32"/>
       <c r="J183" s="33"/>
       <c r="K183" s="33"/>
-      <c r="L183" s="47"/>
-      <c r="M183" s="47"/>
-      <c r="N183" s="47"/>
+      <c r="L183" s="53"/>
+      <c r="M183" s="53"/>
+      <c r="N183" s="53"/>
       <c r="O183" s="11"/>
     </row>
     <row r="184" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5306,14 +5306,14 @@
       <c r="D184" s="35"/>
       <c r="E184" s="23"/>
       <c r="F184" s="36"/>
-      <c r="G184" s="61"/>
+      <c r="G184" s="49"/>
       <c r="H184" s="34"/>
       <c r="I184" s="23"/>
       <c r="J184" s="23"/>
       <c r="K184" s="34"/>
-      <c r="L184" s="47"/>
-      <c r="M184" s="47"/>
-      <c r="N184" s="47"/>
+      <c r="L184" s="53"/>
+      <c r="M184" s="53"/>
+      <c r="N184" s="53"/>
       <c r="O184" s="11"/>
     </row>
     <row r="185" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5323,14 +5323,14 @@
       <c r="D185" s="31"/>
       <c r="E185" s="32"/>
       <c r="F185" s="36"/>
-      <c r="G185" s="61"/>
+      <c r="G185" s="49"/>
       <c r="H185" s="33"/>
       <c r="I185" s="32"/>
       <c r="J185" s="33"/>
       <c r="K185" s="33"/>
-      <c r="L185" s="47"/>
-      <c r="M185" s="47"/>
-      <c r="N185" s="47"/>
+      <c r="L185" s="53"/>
+      <c r="M185" s="53"/>
+      <c r="N185" s="53"/>
       <c r="O185" s="11"/>
     </row>
     <row r="186" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5340,14 +5340,14 @@
       <c r="D186" s="31"/>
       <c r="E186" s="32"/>
       <c r="F186" s="36"/>
-      <c r="G186" s="61"/>
+      <c r="G186" s="49"/>
       <c r="H186" s="33"/>
       <c r="I186" s="32"/>
       <c r="J186" s="33"/>
       <c r="K186" s="33"/>
-      <c r="L186" s="47"/>
-      <c r="M186" s="47"/>
-      <c r="N186" s="47"/>
+      <c r="L186" s="53"/>
+      <c r="M186" s="53"/>
+      <c r="N186" s="53"/>
       <c r="O186" s="11"/>
     </row>
     <row r="187" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5357,14 +5357,14 @@
       <c r="D187" s="31"/>
       <c r="E187" s="32"/>
       <c r="F187" s="36"/>
-      <c r="G187" s="61"/>
+      <c r="G187" s="49"/>
       <c r="H187" s="33"/>
       <c r="I187" s="32"/>
       <c r="J187" s="33"/>
       <c r="K187" s="33"/>
-      <c r="L187" s="47"/>
-      <c r="M187" s="47"/>
-      <c r="N187" s="47"/>
+      <c r="L187" s="53"/>
+      <c r="M187" s="53"/>
+      <c r="N187" s="53"/>
       <c r="O187" s="11"/>
     </row>
     <row r="188" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5374,14 +5374,14 @@
       <c r="D188" s="31"/>
       <c r="E188" s="32"/>
       <c r="F188" s="36"/>
-      <c r="G188" s="61"/>
+      <c r="G188" s="49"/>
       <c r="H188" s="33"/>
       <c r="I188" s="32"/>
       <c r="J188" s="33"/>
       <c r="K188" s="33"/>
-      <c r="L188" s="47"/>
-      <c r="M188" s="47"/>
-      <c r="N188" s="47"/>
+      <c r="L188" s="53"/>
+      <c r="M188" s="53"/>
+      <c r="N188" s="53"/>
       <c r="O188" s="11"/>
     </row>
     <row r="189" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5391,14 +5391,14 @@
       <c r="D189" s="31"/>
       <c r="E189" s="32"/>
       <c r="F189" s="36"/>
-      <c r="G189" s="61"/>
+      <c r="G189" s="49"/>
       <c r="H189" s="33"/>
       <c r="I189" s="32"/>
       <c r="J189" s="33"/>
       <c r="K189" s="33"/>
-      <c r="L189" s="47"/>
-      <c r="M189" s="47"/>
-      <c r="N189" s="47"/>
+      <c r="L189" s="53"/>
+      <c r="M189" s="53"/>
+      <c r="N189" s="53"/>
       <c r="O189" s="11"/>
     </row>
     <row r="190" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5408,14 +5408,14 @@
       <c r="D190" s="31"/>
       <c r="E190" s="32"/>
       <c r="F190" s="36"/>
-      <c r="G190" s="61"/>
+      <c r="G190" s="49"/>
       <c r="H190" s="33"/>
       <c r="I190" s="32"/>
       <c r="J190" s="33"/>
       <c r="K190" s="33"/>
-      <c r="L190" s="47"/>
-      <c r="M190" s="47"/>
-      <c r="N190" s="47"/>
+      <c r="L190" s="53"/>
+      <c r="M190" s="53"/>
+      <c r="N190" s="53"/>
       <c r="O190" s="11"/>
     </row>
     <row r="191" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5425,14 +5425,14 @@
       <c r="D191" s="31"/>
       <c r="E191" s="32"/>
       <c r="F191" s="36"/>
-      <c r="G191" s="61"/>
+      <c r="G191" s="49"/>
       <c r="H191" s="33"/>
       <c r="I191" s="32"/>
       <c r="J191" s="33"/>
       <c r="K191" s="33"/>
-      <c r="L191" s="47"/>
-      <c r="M191" s="47"/>
-      <c r="N191" s="47"/>
+      <c r="L191" s="53"/>
+      <c r="M191" s="53"/>
+      <c r="N191" s="53"/>
       <c r="O191" s="11"/>
     </row>
     <row r="192" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5442,14 +5442,14 @@
       <c r="D192" s="31"/>
       <c r="E192" s="32"/>
       <c r="F192" s="36"/>
-      <c r="G192" s="61"/>
+      <c r="G192" s="49"/>
       <c r="H192" s="33"/>
       <c r="I192" s="32"/>
       <c r="J192" s="33"/>
       <c r="K192" s="33"/>
-      <c r="L192" s="47"/>
-      <c r="M192" s="47"/>
-      <c r="N192" s="47"/>
+      <c r="L192" s="53"/>
+      <c r="M192" s="53"/>
+      <c r="N192" s="53"/>
       <c r="O192" s="11"/>
     </row>
     <row r="193" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5459,150 +5459,150 @@
       <c r="D193" s="35"/>
       <c r="E193" s="23"/>
       <c r="F193" s="36"/>
-      <c r="G193" s="61"/>
+      <c r="G193" s="49"/>
       <c r="H193" s="34"/>
       <c r="I193" s="23"/>
       <c r="J193" s="23"/>
       <c r="K193" s="34"/>
-      <c r="L193" s="47"/>
-      <c r="M193" s="47"/>
-      <c r="N193" s="47"/>
+      <c r="L193" s="53"/>
+      <c r="M193" s="53"/>
+      <c r="N193" s="53"/>
       <c r="O193" s="11"/>
     </row>
     <row r="194" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="37"/>
       <c r="B194" s="37"/>
-      <c r="C194" s="61"/>
+      <c r="C194" s="49"/>
       <c r="D194" s="31"/>
       <c r="E194" s="32"/>
       <c r="F194" s="36"/>
-      <c r="G194" s="61"/>
+      <c r="G194" s="49"/>
       <c r="H194" s="33"/>
       <c r="I194" s="32"/>
       <c r="J194" s="33"/>
       <c r="K194" s="33"/>
-      <c r="L194" s="47"/>
-      <c r="M194" s="47"/>
-      <c r="N194" s="47"/>
+      <c r="L194" s="53"/>
+      <c r="M194" s="53"/>
+      <c r="N194" s="53"/>
       <c r="O194" s="11"/>
     </row>
     <row r="195" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="37"/>
       <c r="B195" s="37"/>
-      <c r="C195" s="61"/>
+      <c r="C195" s="49"/>
       <c r="D195" s="31"/>
       <c r="E195" s="32"/>
       <c r="F195" s="36"/>
-      <c r="G195" s="61"/>
+      <c r="G195" s="49"/>
       <c r="H195" s="33"/>
       <c r="I195" s="32"/>
       <c r="J195" s="33"/>
       <c r="K195" s="33"/>
-      <c r="L195" s="47"/>
-      <c r="M195" s="47"/>
-      <c r="N195" s="47"/>
+      <c r="L195" s="53"/>
+      <c r="M195" s="53"/>
+      <c r="N195" s="53"/>
       <c r="O195" s="11"/>
     </row>
     <row r="196" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="37"/>
       <c r="B196" s="37"/>
-      <c r="C196" s="61"/>
+      <c r="C196" s="49"/>
       <c r="D196" s="31"/>
       <c r="E196" s="32"/>
       <c r="F196" s="36"/>
-      <c r="G196" s="61"/>
+      <c r="G196" s="49"/>
       <c r="H196" s="33"/>
       <c r="I196" s="32"/>
       <c r="J196" s="33"/>
       <c r="K196" s="33"/>
-      <c r="L196" s="47"/>
-      <c r="M196" s="47"/>
-      <c r="N196" s="47"/>
+      <c r="L196" s="53"/>
+      <c r="M196" s="53"/>
+      <c r="N196" s="53"/>
       <c r="O196" s="11"/>
     </row>
     <row r="197" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="37"/>
       <c r="B197" s="37"/>
-      <c r="C197" s="61"/>
+      <c r="C197" s="49"/>
       <c r="D197" s="31"/>
       <c r="E197" s="32"/>
       <c r="F197" s="36"/>
-      <c r="G197" s="61"/>
+      <c r="G197" s="49"/>
       <c r="H197" s="33"/>
       <c r="I197" s="32"/>
       <c r="J197" s="33"/>
       <c r="K197" s="33"/>
-      <c r="L197" s="47"/>
-      <c r="M197" s="47"/>
-      <c r="N197" s="47"/>
+      <c r="L197" s="53"/>
+      <c r="M197" s="53"/>
+      <c r="N197" s="53"/>
       <c r="O197" s="11"/>
     </row>
     <row r="198" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="37"/>
       <c r="B198" s="37"/>
-      <c r="C198" s="61"/>
+      <c r="C198" s="49"/>
       <c r="D198" s="31"/>
       <c r="E198" s="32"/>
       <c r="F198" s="36"/>
-      <c r="G198" s="61"/>
+      <c r="G198" s="49"/>
       <c r="H198" s="33"/>
       <c r="I198" s="32"/>
       <c r="J198" s="33"/>
       <c r="K198" s="33"/>
-      <c r="L198" s="47"/>
-      <c r="M198" s="47"/>
-      <c r="N198" s="47"/>
+      <c r="L198" s="53"/>
+      <c r="M198" s="53"/>
+      <c r="N198" s="53"/>
       <c r="O198" s="11"/>
     </row>
     <row r="199" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="37"/>
       <c r="B199" s="37"/>
-      <c r="C199" s="61"/>
+      <c r="C199" s="49"/>
       <c r="D199" s="31"/>
       <c r="E199" s="32"/>
       <c r="F199" s="36"/>
-      <c r="G199" s="61"/>
+      <c r="G199" s="49"/>
       <c r="H199" s="33"/>
       <c r="I199" s="32"/>
       <c r="J199" s="33"/>
       <c r="K199" s="33"/>
-      <c r="L199" s="47"/>
-      <c r="M199" s="47"/>
-      <c r="N199" s="47"/>
+      <c r="L199" s="53"/>
+      <c r="M199" s="53"/>
+      <c r="N199" s="53"/>
       <c r="O199" s="11"/>
     </row>
     <row r="200" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="37"/>
       <c r="B200" s="37"/>
-      <c r="C200" s="61"/>
+      <c r="C200" s="49"/>
       <c r="D200" s="31"/>
       <c r="E200" s="32"/>
       <c r="F200" s="36"/>
-      <c r="G200" s="61"/>
+      <c r="G200" s="49"/>
       <c r="H200" s="33"/>
       <c r="I200" s="32"/>
       <c r="J200" s="33"/>
       <c r="K200" s="33"/>
-      <c r="L200" s="47"/>
-      <c r="M200" s="47"/>
-      <c r="N200" s="47"/>
+      <c r="L200" s="53"/>
+      <c r="M200" s="53"/>
+      <c r="N200" s="53"/>
       <c r="O200" s="11"/>
     </row>
     <row r="201" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="37"/>
       <c r="B201" s="37"/>
-      <c r="C201" s="61"/>
+      <c r="C201" s="49"/>
       <c r="D201" s="31"/>
       <c r="E201" s="32"/>
       <c r="F201" s="36"/>
-      <c r="G201" s="61"/>
+      <c r="G201" s="49"/>
       <c r="H201" s="33"/>
       <c r="I201" s="32"/>
       <c r="J201" s="33"/>
       <c r="K201" s="33"/>
-      <c r="L201" s="47"/>
-      <c r="M201" s="47"/>
-      <c r="N201" s="47"/>
+      <c r="L201" s="53"/>
+      <c r="M201" s="53"/>
+      <c r="N201" s="53"/>
       <c r="O201" s="11"/>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.2">
@@ -5785,15 +5785,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A15CACC630ED54297D65AB76C7E4152" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f9224894604dd5dcf109e237b4ba6161">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="65b56f9e78c25ab14f42747c2d4c91a8">
     <xsd:element name="properties">
@@ -5842,6 +5833,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -5849,14 +5849,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8170B7E-5539-41AC-9A71-14DD93E392CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E9FC9C4-C9DD-4EFA-932E-648F7AD23CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5871,16 +5863,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8170B7E-5539-41AC-9A71-14DD93E392CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80DEB101-1945-4BC7-AFEA-84998D52867C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>